--- a/input_selenium.xlsx
+++ b/input_selenium.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EA6A9E-E776-43B9-B534-C978D687B041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C140EC3F-F55A-4C12-A1B7-C68DC8B767D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2565" windowWidth="32925" windowHeight="18105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3195" yWindow="3285" windowWidth="20520" windowHeight="17610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,6 +212,23 @@
 title_list = [i.text.strip() for i in title_list];
 body_list = soup.select("ul.css-ratt8o li div p")[:5];
 body_list = [i.text for i in body_list];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_list = soup.select("#table tr td.tal")[:5];
+url_list = ["https://www.hanaw.com/main/research/trends/RC_060600_P1.cmd" + i.select_one("a")["href"]for i in url_list];
+title_list = soup.select("#table tr td.tal a.title")[:5];
+title_list = [i.text.strip() for i in title_list];
+body_list = soup.select("#table tr td.tdlast")[:5];
+body_list = [i.text.strip() for i in body_list];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#하나증권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.hanaw.com/main/research/trends/RC_060600_P1.cmd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -747,6 +764,23 @@
         <v>25</v>
       </c>
     </row>
+    <row r="9" spans="1:5" ht="99">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -757,9 +791,10 @@
     <hyperlink ref="D6" r:id="rId5" xr:uid="{A1716214-80A7-4845-B71A-21025915BB09}"/>
     <hyperlink ref="D7" r:id="rId6" xr:uid="{EECC3563-5DD1-4E4B-BF41-B2E43326681C}"/>
     <hyperlink ref="D8" r:id="rId7" xr:uid="{CCCCC257-7918-45BF-971D-B9A610208E8D}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{B7FBA2B1-1A22-45B6-A547-61DD141E5BC9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
-  <legacyDrawing r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <legacyDrawing r:id="rId10"/>
 </worksheet>
 </file>
--- a/input_selenium.xlsx
+++ b/input_selenium.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C140EC3F-F55A-4C12-A1B7-C68DC8B767D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0808D9FB-3BEC-4645-83D4-02A9B03E7377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="3285" windowWidth="20520" windowHeight="17610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="795" yWindow="2415" windowWidth="37605" windowHeight="19185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,20 +215,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>#하나증권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.hanaw.com/main/research/trends/RC_060600_P1.cmd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal_company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>url_list = soup.select("#table tr td.tal")[:5];
 url_list = ["https://www.hanaw.com/main/research/trends/RC_060600_P1.cmd" + i.select_one("a")["href"]for i in url_list];
+body_list = soup.select("#table tr td.tdlast")[:5];
+body_list = [i.text.strip() for i in body_list];
+com_list = [b[:2] for b in body_list]
 title_list = soup.select("#table tr td.tal a.title")[:5];
+title_list = [i.text.strip() for i in title_list];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_list = soup.select("aside.content-aside div ul.list_newsbasic li")[:10];
+url_list = [i.select_one("a")["href"] for i in url_list];
+title_list = soup.select("aside.content-aside div ul.list_newsbasic li div.cont_thumb strong.tit_txt")[:10];
 title_list = [i.text.strip() for i in title_list];
-body_list = soup.select("#table tr td.tdlast")[:5];
+body_list = soup.select("aside.content-aside div ul.list_newsbasic li div.cont_thumb p")[:10];
 body_list = [i.text.strip() for i in body_list];</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#하나증권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.hanaw.com/main/research/trends/RC_060600_P1.cmd</t>
+    <t>#다음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://news.daum.net/politics</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -616,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -764,21 +786,38 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="99">
+    <row r="9" spans="1:5" ht="115.5">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <v>1.1000000000000001</v>
       </c>
       <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="99">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>27</v>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -792,9 +831,10 @@
     <hyperlink ref="D7" r:id="rId6" xr:uid="{EECC3563-5DD1-4E4B-BF41-B2E43326681C}"/>
     <hyperlink ref="D8" r:id="rId7" xr:uid="{CCCCC257-7918-45BF-971D-B9A610208E8D}"/>
     <hyperlink ref="D9" r:id="rId8" xr:uid="{B7FBA2B1-1A22-45B6-A547-61DD141E5BC9}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{CC85C19C-5154-4AFC-803C-C75DB30CB13B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
-  <legacyDrawing r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <legacyDrawing r:id="rId11"/>
 </worksheet>
 </file>
--- a/input_selenium.xlsx
+++ b/input_selenium.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0808D9FB-3BEC-4645-83D4-02A9B03E7377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5B2D4D-1587-4533-9F17-205CDF005C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="2415" windowWidth="37605" windowHeight="19185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="1365" windowWidth="37605" windowHeight="19185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,23 +234,6 @@
 com_list = [b[:2] for b in body_list]
 title_list = soup.select("#table tr td.tal a.title")[:5];
 title_list = [i.text.strip() for i in title_list];</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url_list = soup.select("aside.content-aside div ul.list_newsbasic li")[:10];
-url_list = [i.select_one("a")["href"] for i in url_list];
-title_list = soup.select("aside.content-aside div ul.list_newsbasic li div.cont_thumb strong.tit_txt")[:10];
-title_list = [i.text.strip() for i in title_list];
-body_list = soup.select("aside.content-aside div ul.list_newsbasic li div.cont_thumb p")[:10];
-body_list = [i.text.strip() for i in body_list];</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#다음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://news.daum.net/politics</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -638,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -774,7 +757,7 @@
         <v>23</v>
       </c>
       <c r="B8">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -801,23 +784,6 @@
       </c>
       <c r="E9" s="1" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="99">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -831,10 +797,9 @@
     <hyperlink ref="D7" r:id="rId6" xr:uid="{EECC3563-5DD1-4E4B-BF41-B2E43326681C}"/>
     <hyperlink ref="D8" r:id="rId7" xr:uid="{CCCCC257-7918-45BF-971D-B9A610208E8D}"/>
     <hyperlink ref="D9" r:id="rId8" xr:uid="{B7FBA2B1-1A22-45B6-A547-61DD141E5BC9}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{CC85C19C-5154-4AFC-803C-C75DB30CB13B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
-  <legacyDrawing r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <legacyDrawing r:id="rId10"/>
 </worksheet>
 </file>
--- a/input_selenium.xlsx
+++ b/input_selenium.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5B2D4D-1587-4533-9F17-205CDF005C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A119C62E-6922-40AE-993C-33681316C1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="1365" windowWidth="37605" windowHeight="19185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="795" yWindow="2430" windowWidth="37605" windowHeight="19170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,23 +116,6 @@
   </si>
   <si>
     <t>https://www.asiatime.co.kr/search?searchText=%EC%95%84%EC%8B%9C%EC%95%84%ED%83%80%EC%9E%84%EC%A6%88</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url_list = soup.select("#wps_layout1_box1 ul.article-list li.item h2.title")[:5];
-url_list = ["https://www.segyebiz.com" + i.select_one("a")["href"] for i in url_list];
-title_list = soup.select("#wps_layout1_box1 ul.article-list li.item h2.title")[:5];
-title_list = [i.text.strip() for i in title_list];
-body_list = soup.select("#wps_layout1_box1 ul.article-list li.item div.summary")[:5];
-body_list = [i.text.strip() for i in body_list];</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세계비즈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.segyebiz.com/newsList/0500000000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -621,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -661,10 +644,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="99">
@@ -686,120 +669,102 @@
     </row>
     <row r="4" spans="1:5" ht="81">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="81">
+    <row r="5" spans="1:5" ht="99">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="99">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="99">
+    <row r="7" spans="1:5" ht="66">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" ht="66">
+    <row r="8" spans="1:5" ht="115.5">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8">
-        <v>3.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="115.5">
-      <c r="A9" t="s">
         <v>27</v>
-      </c>
-      <c r="B9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D2" r:id="rId4" xr:uid="{52A5836D-8B07-4374-B6AE-812040722F77}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{A1716214-80A7-4845-B71A-21025915BB09}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{EECC3563-5DD1-4E4B-BF41-B2E43326681C}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{CCCCC257-7918-45BF-971D-B9A610208E8D}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{B7FBA2B1-1A22-45B6-A547-61DD141E5BC9}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{52A5836D-8B07-4374-B6AE-812040722F77}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{A1716214-80A7-4845-B71A-21025915BB09}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{EECC3563-5DD1-4E4B-BF41-B2E43326681C}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{CCCCC257-7918-45BF-971D-B9A610208E8D}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{B7FBA2B1-1A22-45B6-A547-61DD141E5BC9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
-  <legacyDrawing r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <legacyDrawing r:id="rId9"/>
 </worksheet>
 </file>
--- a/input_selenium.xlsx
+++ b/input_selenium.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A119C62E-6922-40AE-993C-33681316C1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D545D9-4A51-4372-8F02-6B032C58BEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="2430" windowWidth="37605" windowHeight="19170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4860" yWindow="2955" windowWidth="19170" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,10 +95,6 @@
   </si>
   <si>
     <t>interval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mtn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -150,10 +146,6 @@
 title_list = [i.text.strip() for i in title_list];
 body_list = soup.select("div.list_con div.list_div div.info_con ul li div.info_con div.text_con")[:5];
 body_list = [i.text for i in body_list];</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://news.mtn.co.kr/category-news/all</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -186,15 +178,6 @@
 title_list = soup.select("article.inews-list ol a.inews-feed-small h2")[:5];
 title_list = ["##" + i.text.strip() for i in title_list];
 body_list = ["" for i in range(5)];</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url_list = soup.select("ul.css-ratt8o li")[:5];
-url_list = ["https://news.mtn.co.kr" + i.select_one("a")["href"] for i in url_list];
-title_list = soup.select("ul.css-ratt8o li div h3")[:5];
-title_list = [i.text.strip() for i in title_list];
-body_list = soup.select("ul.css-ratt8o li div p")[:5];
-body_list = [i.text for i in body_list];</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -604,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -638,21 +621,21 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="99">
+    <row r="3" spans="1:5" ht="81">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -661,110 +644,92 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" ht="81">
+    <row r="4" spans="1:5" ht="99">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="99">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" ht="99">
+    <row r="6" spans="1:5" ht="66">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>18</v>
+      <c r="D6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="66">
+    <row r="7" spans="1:5" ht="115.5">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7">
-        <v>3.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="115.5">
-      <c r="A8" t="s">
         <v>24</v>
-      </c>
-      <c r="B8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{52A5836D-8B07-4374-B6AE-812040722F77}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{A1716214-80A7-4845-B71A-21025915BB09}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{EECC3563-5DD1-4E4B-BF41-B2E43326681C}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{CCCCC257-7918-45BF-971D-B9A610208E8D}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{B7FBA2B1-1A22-45B6-A547-61DD141E5BC9}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{A1716214-80A7-4845-B71A-21025915BB09}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{EECC3563-5DD1-4E4B-BF41-B2E43326681C}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{CCCCC257-7918-45BF-971D-B9A610208E8D}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{B7FBA2B1-1A22-45B6-A547-61DD141E5BC9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
-  <legacyDrawing r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <legacyDrawing r:id="rId8"/>
 </worksheet>
 </file>